--- a/dataset/squad_preds_metrics_t0.8_deberta.xlsx
+++ b/dataset/squad_preds_metrics_t0.8_deberta.xlsx
@@ -13325,7 +13325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -13361,6 +13361,15 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -13374,6 +13383,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -13425,7 +13435,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -13446,7 +13456,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -13529,11 +13543,11 @@
   </sheetPr>
   <dimension ref="A1:M1185"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A101" activeCellId="0" sqref="101:101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L78" activeCellId="0" sqref="L78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="13.78"/>
@@ -13989,7 +14003,7 @@
       <c r="K11" s="0" t="n">
         <v>0.666666662222222</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -14443,7 +14457,7 @@
       <c r="L22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -14932,7 +14946,7 @@
       <c r="K34" s="0" t="n">
         <v>0.909090904132231</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M34" s="1" t="s">
@@ -15137,7 +15151,7 @@
       <c r="K39" s="0" t="n">
         <v>0.49999999625</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M39" s="1" t="s">
@@ -15298,7 +15312,7 @@
       <c r="K43" s="0" t="n">
         <v>0.49999999625</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -15752,7 +15766,7 @@
       <c r="L54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="M54" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15793,7 +15807,7 @@
       <c r="L55" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="M55" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16610,7 +16624,7 @@
       <c r="K75" s="0" t="n">
         <v>0.7499999953125</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="L75" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M75" s="1" t="s">
@@ -16733,7 +16747,7 @@
       <c r="K78" s="0" t="n">
         <v>0.571428566530612</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="L78" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M78" s="1" t="s">
@@ -53196,7 +53210,7 @@
       <c r="D1037" s="0" t="s">
         <v>3887</v>
       </c>
-      <c r="E1037" s="5" t="s">
+      <c r="E1037" s="6" t="s">
         <v>3888</v>
       </c>
       <c r="F1037" s="0" t="n">
@@ -57183,7 +57197,7 @@
       <c r="D1142" s="0" t="s">
         <v>4271</v>
       </c>
-      <c r="E1142" s="5" t="s">
+      <c r="E1142" s="6" t="s">
         <v>4272</v>
       </c>
       <c r="F1142" s="0" t="n">
@@ -57788,7 +57802,7 @@
       <c r="D1158" s="0" t="s">
         <v>4330</v>
       </c>
-      <c r="E1158" s="5" t="s">
+      <c r="E1158" s="6" t="s">
         <v>4331</v>
       </c>
       <c r="F1158" s="0" t="n">
@@ -58583,7 +58597,7 @@
       <c r="D1179" s="0" t="s">
         <v>4407</v>
       </c>
-      <c r="E1179" s="5" t="s">
+      <c r="E1179" s="6" t="s">
         <v>4408</v>
       </c>
       <c r="F1179" s="0" t="n">
